--- a/marsframework-master/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/marsframework-master/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vidhya\source\repos\MarsFramework\MarsFramework\MarsFramework\ExcelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9272ECE-833C-43AE-9AC5-5DC008F12B22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4470" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Url</t>
   </si>
@@ -135,18 +129,21 @@
     <t>Selectday</t>
   </si>
   <si>
-    <t>Mon</t>
+    <t>API Automation using Postman</t>
+  </si>
+  <si>
+    <t>Tue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,7 +195,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -260,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,27 +289,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,24 +323,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,23 +498,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -570,7 +531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -589,28 +550,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -634,9 +595,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3" display="Test@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
@@ -644,27 +605,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="1" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="8" max="12" width="12.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -715,7 +676,7 @@
       </c>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -738,13 +699,13 @@
         <v>33</v>
       </c>
       <c r="H2" s="4">
-        <v>43567</v>
-      </c>
-      <c r="I2" s="3">
-        <v>43597</v>
+        <v>44528</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44893</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" s="5">
         <v>0.75</v>
@@ -763,6 +724,11 @@
       </c>
       <c r="P2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="E3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
